--- a/files/javaKnowledge/servlet.xlsx
+++ b/files/javaKnowledge/servlet.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\folder\files\javaKnowledge\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="15075" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -62,13 +65,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -432,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,36 +730,10 @@
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>